--- a/3-8-2/Example_Input/Example_WB1.xlsx
+++ b/3-8-2/Example_Input/Example_WB1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding_repos\sdg_data_updates\3-8-2\Example_Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BA0605-B565-47E1-8579-01DA1E5D1509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22850E78-C859-409A-9D98-C9FE856A3D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="1560" windowWidth="17280" windowHeight="10044" xr2:uid="{A1C32A6F-2024-4607-A447-6035D4B8DD8E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{A1C32A6F-2024-4607-A447-6035D4B8DD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3538" uniqueCount="1257">
   <si>
     <t>Table A1</t>
   </si>
@@ -4203,6 +4203,12 @@
   <si>
     <t>Data collected in March 2020 may have covered changes to spending habits around the start of the first UK lockdown on March 23rd, for example panic buying beforehand and reduced spending during lockdown when people were advised to stay at home and many businesses were closed. However, due to reduced data collection in the latter half of March data may not accurately reflect the impact of lockdown on spending and the annual estimates reported in this release will not be significantly impacted.</t>
   </si>
+  <si>
+    <t>[1.8]</t>
+  </si>
+  <si>
+    <t>~0.3</t>
+  </si>
 </sst>
 </file>
 
@@ -4224,7 +4230,7 @@
     <numFmt numFmtId="175" formatCode="0,"/>
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="#,"/>
-    <numFmt numFmtId="179" formatCode="#,##0.0"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="72" x14ac:knownFonts="1">
     <font>
@@ -5918,7 +5924,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6731,7 +6737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69BDB8D-D2D1-4ABE-A6B9-1B465CAC5910}">
   <dimension ref="B2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -6959,7 +6965,9 @@
   <sheetPr transitionEvaluation="1"/>
   <dimension ref="A1:N940"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H356" sqref="H356"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14697,8 +14705,8 @@
         <v>394</v>
       </c>
       <c r="E336" s="57"/>
-      <c r="G336" s="107">
-        <v>0.3</v>
+      <c r="G336" s="107" t="s">
+        <v>1256</v>
       </c>
       <c r="H336" s="108">
         <v>10</v>
@@ -14736,8 +14744,8 @@
         <v>396</v>
       </c>
       <c r="F338" s="30"/>
-      <c r="G338" s="107">
-        <v>1.8</v>
+      <c r="G338" s="107" t="s">
+        <v>1255</v>
       </c>
       <c r="H338" s="108">
         <v>51</v>
@@ -65348,56 +65356,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>ONS Document</p:Name>
-  <p:Description/>
-  <p:Statement/>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
-      <p:Name>Retention</p:Name>
-      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
-      <p:CustomData>
-        <Schedules nextStageId="2">
-          <Schedule type="Default">
-            <stages>
-              <data stageId="1">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>100</number>
-                  <property>Retention_x0020_Date</property>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="ONS-RetentionAction"/>
-              </data>
-            </stages>
-          </Schedule>
-        </Schedules>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ONS Document" ma:contentTypeID="0x01010035E33599CC8D1E47A037F474646B1D58006D441620700B7245BD0DA66561D180D8" ma:contentTypeVersion="86" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="587481f551546c17b26df9168341fe54">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="e14115de-03ae-49b5-af01-31035404c456" xmlns:ns4="9509735f-3ae9-4121-96e5-809de8da2c96" xmlns:ns6="7e692796-5f81-4a32-a711-c4a1667a12ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="330f307e5632ac2956908a993a425b29" ns1:_="" ns3:_="" ns4:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -65619,7 +65577,89 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <RetentionDate xmlns="9509735f-3ae9-4121-96e5-809de8da2c96" xsi:nil="true"/>
+    <o5359087ad404c199aee74686ab194d3 xmlns="e14115de-03ae-49b5-af01-31035404c456">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Correspondence, Guidance etc</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">746aa5d3-a4cc-4e5c-bc1b-afebd1d43e75</TermId>
+        </TermInfo>
+      </Terms>
+    </o5359087ad404c199aee74686ab194d3>
+    <EDRMSOwner xmlns="9509735f-3ae9-4121-96e5-809de8da2c96" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="e14115de-03ae-49b5-af01-31035404c456">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Retention xmlns="9509735f-3ae9-4121-96e5-809de8da2c96">0</Retention>
+    <RetentionType xmlns="9509735f-3ae9-4121-96e5-809de8da2c96">Notify</RetentionType>
+    <_dlc_DocId xmlns="7e692796-5f81-4a32-a711-c4a1667a12ba">HQ4UJUHWDEYU-804635101-1145</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="7e692796-5f81-4a32-a711-c4a1667a12ba">
+      <Url>https://share.sp.ons.statistics.gov.uk/sites/ssd/res/_layouts/15/DocIdRedir.aspx?ID=HQ4UJUHWDEYU-804635101-1145</Url>
+      <Description>HQ4UJUHWDEYU-804635101-1145</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>ONS Document</p:Name>
+  <p:Description/>
+  <p:Statement/>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
+      <p:Name>Retention</p:Name>
+      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
+      <p:CustomData>
+        <Schedules nextStageId="2">
+          <Schedule type="Default">
+            <stages>
+              <data stageId="1">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>100</number>
+                  <property>Retention_x0020_Date</property>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="ONS-RetentionAction"/>
+              </data>
+            </stages>
+          </Schedule>
+        </Schedules>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
+</file>
+
+<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -65724,63 +65764,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <RetentionDate xmlns="9509735f-3ae9-4121-96e5-809de8da2c96" xsi:nil="true"/>
-    <o5359087ad404c199aee74686ab194d3 xmlns="e14115de-03ae-49b5-af01-31035404c456">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Correspondence, Guidance etc</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">746aa5d3-a4cc-4e5c-bc1b-afebd1d43e75</TermId>
-        </TermInfo>
-      </Terms>
-    </o5359087ad404c199aee74686ab194d3>
-    <EDRMSOwner xmlns="9509735f-3ae9-4121-96e5-809de8da2c96" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="e14115de-03ae-49b5-af01-31035404c456">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Retention xmlns="9509735f-3ae9-4121-96e5-809de8da2c96">0</Retention>
-    <RetentionType xmlns="9509735f-3ae9-4121-96e5-809de8da2c96">Notify</RetentionType>
-    <_dlc_DocId xmlns="7e692796-5f81-4a32-a711-c4a1667a12ba">HQ4UJUHWDEYU-804635101-1145</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="7e692796-5f81-4a32-a711-c4a1667a12ba">
-      <Url>https://share.sp.ons.statistics.gov.uk/sites/ssd/res/_layouts/15/DocIdRedir.aspx?ID=HQ4UJUHWDEYU-804635101-1145</Url>
-      <Description>HQ4UJUHWDEYU-804635101-1145</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{522DE8D4-3536-4982-85DC-52D396209B27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98C2A3F4-A718-4A05-991D-8BDDB340FD05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27413204-30CA-44FB-A5DF-0667BCBF15E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B37AA4C-7EF8-4C5D-A29B-C255E085CC9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -65801,23 +65785,23 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B09BD0C-14CF-4BBA-AC76-86D959AE1D55}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27413204-30CA-44FB-A5DF-0667BCBF15E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{970EEDEF-EE64-473D-A6EF-39D57E669B36}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98C2A3F4-A718-4A05-991D-8BDDB340FD05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9405FDC-9FE4-436F-814D-5326A9327F86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -65827,4 +65811,28 @@
     <ds:schemaRef ds:uri="7e692796-5f81-4a32-a711-c4a1667a12ba"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{970EEDEF-EE64-473D-A6EF-39D57E669B36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{522DE8D4-3536-4982-85DC-52D396209B27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="office.server.policy"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B09BD0C-14CF-4BBA-AC76-86D959AE1D55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>